--- a/LR3/table_1_20.xlsx
+++ b/LR3/table_1_20.xlsx
@@ -764,7 +764,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScale="90" zoomScaleNormal="90">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0" defaultColWidth="8.7265625"/>

--- a/LR3/table_1_20.xlsx
+++ b/LR3/table_1_20.xlsx
@@ -172,12 +172,54 @@
   <si>
     <t>Максимальная сумма к оплате, руб</t>
   </si>
+  <si>
+    <t>Площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Срок оплаты</t>
+  </si>
+  <si>
+    <t>Дата оплаты</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Лексин</t>
+  </si>
+  <si>
+    <t>Алимжанов</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +232,12 @@
       <name val="Times New Roman"/>
       <charset val="204"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -229,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" horizontal="center"/>
@@ -251,6 +299,20 @@
     </xf>
     <xf numFmtId="1" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="Q8" activeCellId="0" sqref="Q8"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScale="50" zoomScaleNormal="50">
+      <selection activeCell="AA5" activeCellId="0" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -581,1605 +643,1899 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1">
+      <c r="A1" s="8">
         <v>20</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
     </row>
     <row r="2" ht="72">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="C2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="K2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="8">
         <v>70</v>
       </c>
-      <c r="D3" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E3" s="8">
         <f>C3*D3</f>
         <v>1540</v>
       </c>
-      <c r="F3" s="4">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="4">
-        <f>DATE(2022,9,1)</f>
+      <c r="F3" s="9">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="9">
         <v>44805</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="8">
+        <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="2">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="I3" s="8">
+        <v>10</v>
+      </c>
+      <c r="J3" s="8">
+        <f>H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="2">
-        <f>SUM(E3,J3)</f>
+      <c r="K3" s="8">
+        <f>E3+J3</f>
         <v>1540</v>
       </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="12">
+        <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="8">
+        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E4" s="8">
         <f>C4*D4</f>
         <v>1529</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="9">
         <f>F3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="9">
         <f>G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="8">
+        <f>IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="2">
-        <v>10</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="I4" s="8">
+        <f>I3</f>
+        <v>10</v>
+      </c>
+      <c r="J4" s="8">
+        <f>H4*I4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="2">
-        <f>SUM(E4,J4)</f>
+      <c r="K4" s="8">
+        <f>E4+J4</f>
         <v>1529</v>
       </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="12">
+        <f>A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="8">
+        <f>C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E5" s="8">
         <f>C5*D5</f>
         <v>1518</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="9">
         <f>F4</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="9">
         <f>G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="8">
+        <f>IF(G5&lt;=F5,0,G5-F5)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="2">
-        <v>10</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="I5" s="8">
+        <f>I4</f>
+        <v>10</v>
+      </c>
+      <c r="J5" s="8">
+        <f>H5*I5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="2">
-        <f>SUM(E5,J5)</f>
+      <c r="K5" s="8">
+        <f>E5+J5</f>
         <v>1518</v>
       </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="12">
+        <f>A5+1</f>
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="8">
+        <f>C5-0.5</f>
         <v>68.5</v>
       </c>
-      <c r="D6" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E6" s="8">
         <f>C6*D6</f>
         <v>1507</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="9">
         <f>F5</f>
         <v>44813</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="9">
         <f>G5+1</f>
         <v>44808</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="8">
+        <f>IF(G6&lt;=F6,0,G6-F6)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="2">
-        <v>10</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="I6" s="8">
+        <f>I5</f>
+        <v>10</v>
+      </c>
+      <c r="J6" s="8">
+        <f>H6*I6</f>
         <v>0</v>
       </c>
-      <c r="K6" s="2">
-        <f>SUM(E6,J6)</f>
+      <c r="K6" s="8">
+        <f>E6+J6</f>
         <v>1507</v>
       </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="12">
+        <f>A6+1</f>
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="8">
+        <f>C6-0.5</f>
         <v>68</v>
       </c>
-      <c r="D7" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E7" s="8">
         <f>C7*D7</f>
         <v>1496</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="9">
         <f>F6</f>
         <v>44813</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="9">
         <f>G6+1</f>
         <v>44809</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="8">
+        <f>IF(G7&lt;=F7,0,G7-F7)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="2">
-        <v>10</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="I7" s="8">
+        <f>I6</f>
+        <v>10</v>
+      </c>
+      <c r="J7" s="8">
+        <f>H7*I7</f>
         <v>0</v>
       </c>
-      <c r="K7" s="2">
-        <f>SUM(E7,J7)</f>
+      <c r="K7" s="8">
+        <f>E7+J7</f>
         <v>1496</v>
       </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="12">
+        <f>A7+1</f>
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8">
+        <f>C7-0.5</f>
         <v>67.5</v>
       </c>
-      <c r="D8" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E8" s="8">
         <f>C8*D8</f>
         <v>1485</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="9">
         <f>F7</f>
         <v>44813</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="9">
         <f>G7+1</f>
         <v>44810</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="8">
+        <f>IF(G8&lt;=F8,0,G8-F8)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="2">
-        <v>10</v>
-      </c>
-      <c r="J8" s="2">
+      <c r="I8" s="8">
+        <f>I7</f>
+        <v>10</v>
+      </c>
+      <c r="J8" s="8">
+        <f>H8*I8</f>
         <v>0</v>
       </c>
-      <c r="K8" s="2">
-        <f>SUM(E8,J8)</f>
+      <c r="K8" s="8">
+        <f>E8+J8</f>
         <v>1485</v>
       </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="12">
+        <f>A8+1</f>
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="8">
+        <f>C8-0.5</f>
         <v>67</v>
       </c>
-      <c r="D9" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E9" s="8">
         <f>C9*D9</f>
         <v>1474</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="9">
         <f>F8</f>
         <v>44813</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="9">
         <f>G8+1</f>
         <v>44811</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="8">
+        <f>IF(G9&lt;=F9,0,G9-F9)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="2">
-        <v>10</v>
-      </c>
-      <c r="J9" s="2">
+      <c r="I9" s="8">
+        <f>I8</f>
+        <v>10</v>
+      </c>
+      <c r="J9" s="8">
+        <f>H9*I9</f>
         <v>0</v>
       </c>
-      <c r="K9" s="2">
-        <f>SUM(E9,J9)</f>
+      <c r="K9" s="8">
+        <f>E9+J9</f>
         <v>1474</v>
       </c>
-    </row>
-    <row r="10" ht="28">
-      <c r="A10" s="2">
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" ht="27">
+      <c r="A10" s="12">
+        <f>A9+1</f>
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="8">
+        <f>C9-0.5</f>
         <v>66.5</v>
       </c>
-      <c r="D10" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="D10" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E10" s="8">
         <f>C10*D10</f>
         <v>1463</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="9">
         <f>F9</f>
         <v>44813</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="9">
         <f>G9+1</f>
         <v>44812</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="8">
+        <f>IF(G10&lt;=F10,0,G10-F10)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="2">
-        <v>10</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="I10" s="8">
+        <f>I9</f>
+        <v>10</v>
+      </c>
+      <c r="J10" s="8">
+        <f>H10*I10</f>
         <v>0</v>
       </c>
-      <c r="K10" s="2">
-        <f>SUM(E10,J10)</f>
+      <c r="K10" s="8">
+        <f>E10+J10</f>
         <v>1463</v>
       </c>
-    </row>
-    <row r="11" ht="28">
-      <c r="A11" s="2">
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" ht="27">
+      <c r="A11" s="12">
+        <f>A10+1</f>
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="8">
+        <f>C10-0.5</f>
         <v>66</v>
       </c>
-      <c r="D11" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E11" s="8">
         <f>C11*D11</f>
         <v>1452</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="9">
         <f>F10</f>
         <v>44813</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="9">
         <f>G10+1</f>
         <v>44813</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="8">
+        <f>IF(G11&lt;=F11,0,G11-F11)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="2">
-        <v>10</v>
-      </c>
-      <c r="J11" s="2">
+      <c r="I11" s="8">
+        <f>I10</f>
+        <v>10</v>
+      </c>
+      <c r="J11" s="8">
+        <f>H11*I11</f>
         <v>0</v>
       </c>
-      <c r="K11" s="2">
-        <f>SUM(E11,J11)</f>
+      <c r="K11" s="8">
+        <f>E11+J11</f>
         <v>1452</v>
       </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
     </row>
     <row r="12">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="A12" s="12">
+        <f>A11+1</f>
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="8">
+        <f>C11-0.5</f>
         <v>65.5</v>
       </c>
-      <c r="D12" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E12" s="8">
         <f>C12*D12</f>
         <v>1441</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="9">
         <f>F11</f>
         <v>44813</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="9">
         <f>G11+1</f>
         <v>44814</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="8">
+        <f>IF(G12&lt;=F12,0,G12-F12)</f>
         <v>1</v>
       </c>
-      <c r="I12" s="2">
-        <v>10</v>
-      </c>
-      <c r="J12" s="2">
-        <f>I12*H12</f>
-        <v>10</v>
-      </c>
-      <c r="K12" s="2">
-        <f>SUM(E12,J12)</f>
+      <c r="I12" s="8">
+        <f>I11</f>
+        <v>10</v>
+      </c>
+      <c r="J12" s="8">
+        <f>H12*I12</f>
+        <v>10</v>
+      </c>
+      <c r="K12" s="8">
+        <f>E12+J12</f>
         <v>1451</v>
       </c>
-    </row>
-    <row r="13" ht="28">
-      <c r="A13" s="2">
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" ht="27">
+      <c r="A13" s="12">
+        <f>A12+1</f>
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="8">
+        <f>C12-0.5</f>
         <v>65</v>
       </c>
-      <c r="D13" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E13" s="8">
         <f>C13*D13</f>
         <v>1430</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="9">
         <f>F12</f>
         <v>44813</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="9">
         <f>G12+1</f>
         <v>44815</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="8">
+        <f>IF(G13&lt;=F13,0,G13-F13)</f>
         <v>2</v>
       </c>
-      <c r="I13" s="2">
-        <v>10</v>
-      </c>
-      <c r="J13" s="2">
-        <f>I13*H13</f>
+      <c r="I13" s="8">
+        <f>I12</f>
+        <v>10</v>
+      </c>
+      <c r="J13" s="8">
+        <f>H13*I13</f>
         <v>20</v>
       </c>
-      <c r="K13" s="2">
-        <f>SUM(E13,J13)</f>
+      <c r="K13" s="8">
+        <f>E13+J13</f>
         <v>1450</v>
       </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
     </row>
     <row r="14">
-      <c r="A14" s="2">
+      <c r="A14" s="12">
+        <f>A13+1</f>
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="8">
+        <f>C13-0.5</f>
         <v>64.5</v>
       </c>
-      <c r="D14" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E14" s="8">
         <f>C14*D14</f>
         <v>1419</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="9">
         <f>F13</f>
         <v>44813</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="9">
         <f>G13+1</f>
         <v>44816</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="8">
+        <f>IF(G14&lt;=F14,0,G14-F14)</f>
         <v>3</v>
       </c>
-      <c r="I14" s="2">
-        <v>10</v>
-      </c>
-      <c r="J14" s="2">
-        <f>I14*H14</f>
+      <c r="I14" s="8">
+        <f>I13</f>
+        <v>10</v>
+      </c>
+      <c r="J14" s="8">
+        <f>H14*I14</f>
         <v>30</v>
       </c>
-      <c r="K14" s="2">
-        <f>SUM(E14,J14)</f>
+      <c r="K14" s="8">
+        <f>E14+J14</f>
         <v>1449</v>
       </c>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="12">
+        <f>A14+1</f>
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="8">
+        <f>C14-0.5</f>
         <v>64</v>
       </c>
-      <c r="D15" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D15" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E15" s="8">
         <f>C15*D15</f>
         <v>1408</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="9">
         <f>F14</f>
         <v>44813</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="9">
         <f>G14+1</f>
         <v>44817</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="8">
+        <f>IF(G15&lt;=F15,0,G15-F15)</f>
         <v>4</v>
       </c>
-      <c r="I15" s="2">
-        <v>10</v>
-      </c>
-      <c r="J15" s="2">
-        <f>I15*H15</f>
+      <c r="I15" s="8">
+        <f>I14</f>
+        <v>10</v>
+      </c>
+      <c r="J15" s="8">
+        <f>H15*I15</f>
         <v>40</v>
       </c>
-      <c r="K15" s="2">
-        <f>SUM(E15,J15)</f>
+      <c r="K15" s="8">
+        <f>E15+J15</f>
         <v>1448</v>
       </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="12">
+        <f>A15+1</f>
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="8">
+        <f>C15-0.5</f>
         <v>63.5</v>
       </c>
-      <c r="D16" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D16" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E16" s="8">
         <f>C16*D16</f>
         <v>1397</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="9">
         <f>F15</f>
         <v>44813</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="9">
         <f>G15+1</f>
         <v>44818</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="8">
+        <f>IF(G16&lt;=F16,0,G16-F16)</f>
         <v>5</v>
       </c>
-      <c r="I16" s="2">
-        <v>10</v>
-      </c>
-      <c r="J16" s="2">
-        <f>I16*H16</f>
+      <c r="I16" s="8">
+        <f>I15</f>
+        <v>10</v>
+      </c>
+      <c r="J16" s="8">
+        <f>H16*I16</f>
         <v>50</v>
       </c>
-      <c r="K16" s="2">
-        <f>SUM(E16,J16)</f>
+      <c r="K16" s="8">
+        <f>E16+J16</f>
         <v>1447</v>
       </c>
-    </row>
-    <row r="17" ht="28">
-      <c r="A17" s="2">
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" ht="27">
+      <c r="A17" s="12">
+        <f>A16+1</f>
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="8">
+        <f>C16-0.5</f>
         <v>63</v>
       </c>
-      <c r="D17" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D17" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E17" s="8">
         <f>C17*D17</f>
         <v>1386</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="9">
         <f>F16</f>
         <v>44813</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="9">
         <f>G16+1</f>
         <v>44819</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="8">
+        <f>IF(G17&lt;=F17,0,G17-F17)</f>
         <v>6</v>
       </c>
-      <c r="I17" s="2">
-        <v>10</v>
-      </c>
-      <c r="J17" s="2">
-        <f>I17*H17</f>
+      <c r="I17" s="8">
+        <f>I16</f>
+        <v>10</v>
+      </c>
+      <c r="J17" s="8">
+        <f>H17*I17</f>
         <v>60</v>
       </c>
-      <c r="K17" s="2">
-        <f>SUM(E17,J17)</f>
+      <c r="K17" s="8">
+        <f>E17+J17</f>
         <v>1446</v>
       </c>
-    </row>
-    <row r="18" ht="28">
-      <c r="A18" s="2">
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" ht="27">
+      <c r="A18" s="12">
+        <f>A17+1</f>
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="8">
+        <f>C17-0.5</f>
         <v>62.5</v>
       </c>
-      <c r="D18" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D18" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E18" s="8">
         <f>C18*D18</f>
         <v>1375</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="9">
         <f>F17</f>
         <v>44813</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="9">
         <f>G17+1</f>
         <v>44820</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="8">
+        <f>IF(G18&lt;=F18,0,G18-F18)</f>
         <v>7</v>
       </c>
-      <c r="I18" s="2">
-        <v>10</v>
-      </c>
-      <c r="J18" s="2">
-        <f>I18*H18</f>
+      <c r="I18" s="8">
+        <f>I17</f>
+        <v>10</v>
+      </c>
+      <c r="J18" s="8">
+        <f>H18*I18</f>
         <v>70</v>
       </c>
-      <c r="K18" s="2">
-        <f>SUM(E18,J18)</f>
+      <c r="K18" s="8">
+        <f>E18+J18</f>
         <v>1445</v>
       </c>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="12">
+        <f>A18+1</f>
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="8">
+        <f>C18-0.5</f>
         <v>62</v>
       </c>
-      <c r="D19" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D19" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E19" s="8">
         <f>C19*D19</f>
         <v>1364</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="9">
         <f>F18</f>
         <v>44813</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="9">
         <f>G18+1</f>
         <v>44821</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="8">
+        <f>IF(G19&lt;=F19,0,G19-F19)</f>
         <v>8</v>
       </c>
-      <c r="I19" s="2">
-        <v>10</v>
-      </c>
-      <c r="J19" s="2">
-        <f>I19*H19</f>
+      <c r="I19" s="8">
+        <f>I18</f>
+        <v>10</v>
+      </c>
+      <c r="J19" s="8">
+        <f>H19*I19</f>
         <v>80</v>
       </c>
-      <c r="K19" s="2">
-        <f>SUM(E19,J19)</f>
+      <c r="K19" s="8">
+        <f>E19+J19</f>
         <v>1444</v>
       </c>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="12">
+        <f>A19+1</f>
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="8">
+        <f>C19-0.5</f>
         <v>61.5</v>
       </c>
-      <c r="D20" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="D20" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E20" s="8">
         <f>C20*D20</f>
         <v>1353</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="9">
         <f>F19</f>
         <v>44813</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="9">
         <f>G19+1</f>
         <v>44822</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="8">
+        <f>IF(G20&lt;=F20,0,G20-F20)</f>
         <v>9</v>
       </c>
-      <c r="I20" s="2">
-        <v>10</v>
-      </c>
-      <c r="J20" s="2">
-        <f>I20*H20</f>
+      <c r="I20" s="8">
+        <f>I19</f>
+        <v>10</v>
+      </c>
+      <c r="J20" s="8">
+        <f>H20*I20</f>
         <v>90</v>
       </c>
-      <c r="K20" s="2">
-        <f>SUM(E20,J20)</f>
+      <c r="K20" s="8">
+        <f>E20+J20</f>
         <v>1443</v>
       </c>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
     </row>
     <row r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="12">
+        <f>A20+1</f>
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="8">
+        <f>C20-0.5</f>
         <v>61</v>
       </c>
-      <c r="D21" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D21" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E21" s="8">
         <f>C21*D21</f>
         <v>1342</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="9">
         <f>F20</f>
         <v>44813</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="9">
         <f>G20+1</f>
         <v>44823</v>
       </c>
-      <c r="H21" s="2">
-        <v>10</v>
-      </c>
-      <c r="I21" s="2">
-        <v>10</v>
-      </c>
-      <c r="J21" s="2">
-        <f>I21*H21</f>
+      <c r="H21" s="8">
+        <f>IF(G21&lt;=F21,0,G21-F21)</f>
+        <v>10</v>
+      </c>
+      <c r="I21" s="8">
+        <f>I20</f>
+        <v>10</v>
+      </c>
+      <c r="J21" s="8">
+        <f>H21*I21</f>
         <v>100</v>
       </c>
-      <c r="K21" s="2">
-        <f>SUM(E21,J21)</f>
+      <c r="K21" s="8">
+        <f>E21+J21</f>
         <v>1442</v>
       </c>
-    </row>
-    <row r="22" ht="28">
-      <c r="A22" s="2">
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" ht="27">
+      <c r="A22" s="12">
+        <f>A21+1</f>
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="8">
+        <f>C21-0.5</f>
         <v>60.5</v>
       </c>
-      <c r="D22" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="D22" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E22" s="8">
         <f>C22*D22</f>
         <v>1331</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="9">
         <f>F21</f>
         <v>44813</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="9">
         <f>G21+1</f>
         <v>44824</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="8">
+        <f>IF(G22&lt;=F22,0,G22-F22)</f>
         <v>11</v>
       </c>
-      <c r="I22" s="2">
-        <v>10</v>
-      </c>
-      <c r="J22" s="2">
-        <f>I22*H22</f>
+      <c r="I22" s="8">
+        <f>I21</f>
+        <v>10</v>
+      </c>
+      <c r="J22" s="8">
+        <f>H22*I22</f>
         <v>110</v>
       </c>
-      <c r="K22" s="2">
-        <f>SUM(E22,J22)</f>
+      <c r="K22" s="8">
+        <f>E22+J22</f>
         <v>1441</v>
       </c>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="12">
+        <f>A22+1</f>
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="8">
+        <f>C22-0.5</f>
         <v>60</v>
       </c>
-      <c r="D23" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D23" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E23" s="8">
         <f>C23*D23</f>
         <v>1320</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="9">
         <f>F22</f>
         <v>44813</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="9">
         <f>G22+1</f>
         <v>44825</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="8">
+        <f>IF(G23&lt;=F23,0,G23-F23)</f>
         <v>12</v>
       </c>
-      <c r="I23" s="2">
-        <v>10</v>
-      </c>
-      <c r="J23" s="2">
-        <f>I23*H23</f>
+      <c r="I23" s="8">
+        <f>I22</f>
+        <v>10</v>
+      </c>
+      <c r="J23" s="8">
+        <f>H23*I23</f>
         <v>120</v>
       </c>
-      <c r="K23" s="2">
-        <f>SUM(E23,J23)</f>
+      <c r="K23" s="8">
+        <f>E23+J23</f>
         <v>1440</v>
       </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
     </row>
     <row r="24">
-      <c r="A24" s="2">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="12">
+        <f>A23+1</f>
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="8">
+        <f>C23-0.5</f>
         <v>59.5</v>
       </c>
-      <c r="D24" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="D24" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E24" s="8">
         <f>C24*D24</f>
         <v>1309</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="9">
         <f>F23</f>
         <v>44813</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="9">
         <f>G23+1</f>
         <v>44826</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="8">
+        <f>IF(G24&lt;=F24,0,G24-F24)</f>
         <v>13</v>
       </c>
-      <c r="I24" s="2">
-        <v>10</v>
-      </c>
-      <c r="J24" s="2">
-        <f>I24*H24</f>
+      <c r="I24" s="8">
+        <f>I23</f>
+        <v>10</v>
+      </c>
+      <c r="J24" s="8">
+        <f>H24*I24</f>
         <v>130</v>
       </c>
-      <c r="K24" s="2">
-        <f>SUM(E24,J24)</f>
+      <c r="K24" s="8">
+        <f>E24+J24</f>
         <v>1439</v>
       </c>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
     </row>
     <row r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="12">
+        <f>A24+1</f>
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="8">
+        <f>C24-0.5</f>
         <v>59</v>
       </c>
-      <c r="D25" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="D25" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E25" s="8">
         <f>C25*D25</f>
         <v>1298</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="9">
         <f>F24</f>
         <v>44813</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="9">
         <f>G24+1</f>
         <v>44827</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="8">
+        <f>IF(G25&lt;=F25,0,G25-F25)</f>
         <v>14</v>
       </c>
-      <c r="I25" s="2">
-        <v>10</v>
-      </c>
-      <c r="J25" s="2">
-        <f>I25*H25</f>
+      <c r="I25" s="8">
+        <f>I24</f>
+        <v>10</v>
+      </c>
+      <c r="J25" s="8">
+        <f>H25*I25</f>
         <v>140</v>
       </c>
-      <c r="K25" s="2">
-        <f>SUM(E25,J25)</f>
+      <c r="K25" s="8">
+        <f>E25+J25</f>
         <v>1438</v>
       </c>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
     </row>
     <row r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="12">
+        <f>A25+1</f>
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="8">
+        <f>C25-0.5</f>
         <v>58.5</v>
       </c>
-      <c r="D26" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="D26" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E26" s="8">
         <f>C26*D26</f>
         <v>1287</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="9">
         <f>F25</f>
         <v>44813</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="9">
         <f>G25+1</f>
         <v>44828</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="8">
+        <f>IF(G26&lt;=F26,0,G26-F26)</f>
         <v>15</v>
       </c>
-      <c r="I26" s="2">
-        <v>10</v>
-      </c>
-      <c r="J26" s="2">
-        <f>I26*H26</f>
+      <c r="I26" s="8">
+        <f>I25</f>
+        <v>10</v>
+      </c>
+      <c r="J26" s="8">
+        <f>H26*I26</f>
         <v>150</v>
       </c>
-      <c r="K26" s="2">
-        <f>SUM(E26,J26)</f>
+      <c r="K26" s="8">
+        <f>E26+J26</f>
         <v>1437</v>
       </c>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27" s="12">
+        <f>A26+1</f>
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="8">
+        <f>C26-0.5</f>
         <v>58</v>
       </c>
-      <c r="D27" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="D27" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E27" s="8">
         <f>C27*D27</f>
         <v>1276</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="9">
         <f>F26</f>
         <v>44813</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="9">
         <f>G26+1</f>
         <v>44829</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="8">
+        <f>IF(G27&lt;=F27,0,G27-F27)</f>
         <v>16</v>
       </c>
-      <c r="I27" s="2">
-        <v>10</v>
-      </c>
-      <c r="J27" s="2">
-        <f>I27*H27</f>
+      <c r="I27" s="8">
+        <f>I26</f>
+        <v>10</v>
+      </c>
+      <c r="J27" s="8">
+        <f>H27*I27</f>
         <v>160</v>
       </c>
-      <c r="K27" s="2">
-        <f>SUM(E27,J27)</f>
+      <c r="K27" s="8">
+        <f>E27+J27</f>
         <v>1436</v>
       </c>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
     </row>
     <row r="28">
-      <c r="A28" s="2">
+      <c r="A28" s="12">
+        <f>A27+1</f>
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="8">
+        <f>C27-0.5</f>
         <v>57.5</v>
       </c>
-      <c r="D28" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E28" s="2">
+      <c r="D28" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E28" s="8">
         <f>C28*D28</f>
         <v>1265</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="9">
         <f>F27</f>
         <v>44813</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="9">
         <f>G27+1</f>
         <v>44830</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="8">
+        <f>IF(G28&lt;=F28,0,G28-F28)</f>
         <v>17</v>
       </c>
-      <c r="I28" s="2">
-        <v>10</v>
-      </c>
-      <c r="J28" s="2">
-        <f>I28*H28</f>
+      <c r="I28" s="8">
+        <f>I27</f>
+        <v>10</v>
+      </c>
+      <c r="J28" s="8">
+        <f>H28*I28</f>
         <v>170</v>
       </c>
-      <c r="K28" s="2">
-        <f>SUM(E28,J28)</f>
+      <c r="K28" s="8">
+        <f>E28+J28</f>
         <v>1435</v>
       </c>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
     </row>
     <row r="29">
-      <c r="A29" s="2">
+      <c r="A29" s="12">
+        <f>A28+1</f>
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="8">
+        <f>C28-0.5</f>
         <v>57</v>
       </c>
-      <c r="D29" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E29" s="2">
+      <c r="D29" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E29" s="8">
         <f>C29*D29</f>
         <v>1254</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="9">
         <f>F28</f>
         <v>44813</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="9">
         <f>G28+1</f>
         <v>44831</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="8">
+        <f>IF(G29&lt;=F29,0,G29-F29)</f>
         <v>18</v>
       </c>
-      <c r="I29" s="2">
-        <v>10</v>
-      </c>
-      <c r="J29" s="2">
-        <f>I29*H29</f>
+      <c r="I29" s="8">
+        <f>I28</f>
+        <v>10</v>
+      </c>
+      <c r="J29" s="8">
+        <f>H29*I29</f>
         <v>180</v>
       </c>
-      <c r="K29" s="2">
-        <f>SUM(E29,J29)</f>
+      <c r="K29" s="8">
+        <f>E29+J29</f>
         <v>1434</v>
       </c>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
     </row>
     <row r="30">
-      <c r="A30" s="2">
+      <c r="A30" s="12">
+        <f>A29+1</f>
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="8">
+        <f>C29-0.5</f>
         <v>56.5</v>
       </c>
-      <c r="D30" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="D30" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E30" s="8">
         <f>C30*D30</f>
         <v>1243</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="9">
         <f>F29</f>
         <v>44813</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="9">
         <f>G29+1</f>
         <v>44832</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="8">
+        <f>IF(G30&lt;=F30,0,G30-F30)</f>
         <v>19</v>
       </c>
-      <c r="I30" s="2">
-        <v>10</v>
-      </c>
-      <c r="J30" s="2">
-        <f>I30*H30</f>
+      <c r="I30" s="8">
+        <f>I29</f>
+        <v>10</v>
+      </c>
+      <c r="J30" s="8">
+        <f>H30*I30</f>
         <v>190</v>
       </c>
-      <c r="K30" s="2">
-        <f>SUM(E30,J30)</f>
+      <c r="K30" s="8">
+        <f>E30+J30</f>
         <v>1433</v>
       </c>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
     </row>
     <row r="31">
-      <c r="A31" s="2">
+      <c r="A31" s="12">
+        <f>A30+1</f>
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="8">
+        <f>C30-0.5</f>
         <v>56</v>
       </c>
-      <c r="D31" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="D31" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E31" s="8">
         <f>C31*D31</f>
         <v>1232</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="9">
         <f>F30</f>
         <v>44813</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="9">
         <f>G30+1</f>
         <v>44833</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="8">
+        <f>IF(G31&lt;=F31,0,G31-F31)</f>
         <v>20</v>
       </c>
-      <c r="I31" s="2">
-        <v>10</v>
-      </c>
-      <c r="J31" s="2">
-        <f>I31*H31</f>
+      <c r="I31" s="8">
+        <f>I30</f>
+        <v>10</v>
+      </c>
+      <c r="J31" s="8">
+        <f>H31*I31</f>
         <v>200</v>
       </c>
-      <c r="K31" s="2">
-        <f>SUM(E31,J31)</f>
+      <c r="K31" s="8">
+        <f>E31+J31</f>
         <v>1432</v>
       </c>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
     </row>
     <row r="32">
-      <c r="A32" s="2">
+      <c r="A32" s="12">
+        <f>A31+1</f>
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="8">
+        <f>C31-0.5</f>
         <v>55.5</v>
       </c>
-      <c r="D32" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="D32" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E32" s="8">
         <f>C32*D32</f>
         <v>1221</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="9">
         <f>F31</f>
         <v>44813</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="9">
         <f>G31+1</f>
         <v>44834</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="8">
+        <f>IF(G32&lt;=F32,0,G32-F32)</f>
         <v>21</v>
       </c>
-      <c r="I32" s="2">
-        <v>10</v>
-      </c>
-      <c r="J32" s="2">
-        <f>I32*H32</f>
+      <c r="I32" s="8">
+        <f>I31</f>
+        <v>10</v>
+      </c>
+      <c r="J32" s="8">
+        <f>H32*I32</f>
         <v>210</v>
       </c>
-      <c r="K32" s="2">
-        <f>SUM(E32,J32)</f>
+      <c r="K32" s="8">
+        <f>E32+J32</f>
         <v>1431</v>
       </c>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
     </row>
     <row r="33">
-      <c r="A33" s="2">
+      <c r="A33" s="12">
+        <f>A32+1</f>
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="8">
+        <f>C32-0.5</f>
         <v>55</v>
       </c>
-      <c r="D33" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E33" s="2">
+      <c r="D33" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E33" s="8">
         <f>C33*D33</f>
         <v>1210</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="9">
         <f>F32</f>
         <v>44813</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="9">
         <f>G32+1</f>
         <v>44835</v>
       </c>
-      <c r="H33" s="2">
-        <v>22</v>
-      </c>
-      <c r="I33" s="2">
-        <v>10</v>
-      </c>
-      <c r="J33" s="2">
-        <f>I33*H33</f>
+      <c r="H33" s="8">
+        <f>IF(G33&lt;=F33,0,G33-F33)</f>
+        <v>22</v>
+      </c>
+      <c r="I33" s="8">
+        <f>I32</f>
+        <v>10</v>
+      </c>
+      <c r="J33" s="8">
+        <f>H33*I33</f>
         <v>220</v>
       </c>
-      <c r="K33" s="2">
-        <f>SUM(E33,J33)</f>
+      <c r="K33" s="8">
+        <f>E33+J33</f>
         <v>1430</v>
       </c>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
     </row>
     <row r="34">
-      <c r="A34" s="2">
+      <c r="A34" s="12">
+        <f>A33+1</f>
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="8">
+        <f>C33-0.5</f>
         <v>54.5</v>
       </c>
-      <c r="D34" s="2">
-        <f>$A$1*1.1</f>
-        <v>22</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="D34" s="8">
+        <f>$A$1*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="E34" s="8">
         <f>C34*D34</f>
         <v>1199</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="9">
         <f>F33</f>
         <v>44813</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="9">
         <f>G33+1</f>
         <v>44836</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="8">
+        <f>IF(G34&lt;=F34,0,G34-F34)</f>
         <v>23</v>
       </c>
-      <c r="I34" s="2">
-        <v>10</v>
-      </c>
-      <c r="J34" s="2">
-        <f>I34*H34</f>
+      <c r="I34" s="8">
+        <f>I33</f>
+        <v>10</v>
+      </c>
+      <c r="J34" s="8">
+        <f>H34*I34</f>
         <v>230</v>
       </c>
-      <c r="K34" s="2">
-        <f>SUM(E34,J34)</f>
+      <c r="K34" s="8">
+        <f>E34+J34</f>
         <v>1429</v>
       </c>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
     </row>
     <row r="35">
-      <c r="A35" s="2">
+      <c r="A35" s="12">
+        <f>A34+1</f>
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="8">
+        <f>C34-0.5</f>
         <v>54</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="8">
         <f>$A$1*1.1/2</f>
         <v>11</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="8">
         <f>C35*D35</f>
         <v>594</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="9">
         <f>F34</f>
         <v>44813</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="9">
         <f>G34+1</f>
         <v>44837</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="8">
+        <f>IF(G35&lt;=F35,0,G35-F35)</f>
         <v>24</v>
       </c>
-      <c r="I35" s="2">
-        <v>10</v>
-      </c>
-      <c r="J35" s="2">
-        <f>I35*H35</f>
+      <c r="I35" s="8">
+        <f>I34</f>
+        <v>10</v>
+      </c>
+      <c r="J35" s="8">
+        <f>H35*I35</f>
         <v>240</v>
       </c>
-      <c r="K35" s="2">
-        <f>SUM(E35,J35)</f>
+      <c r="K35" s="8">
+        <f>E35+J35</f>
         <v>834</v>
       </c>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
     </row>
     <row r="36">
-      <c r="A36" s="2">
+      <c r="A36" s="12">
+        <f>A35+1</f>
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="8">
+        <f>C35-0.5</f>
         <v>53.5</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="8">
         <f>$A$1*1.1/2</f>
         <v>11</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="8">
         <f>C36*D36</f>
         <v>588.5</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="9">
         <f>F35</f>
         <v>44813</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="9">
         <f>G35+1</f>
         <v>44838</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="8">
+        <f>IF(G36&lt;=F36,0,G36-F36)</f>
         <v>25</v>
       </c>
-      <c r="I36" s="2">
-        <v>10</v>
-      </c>
-      <c r="J36" s="2">
-        <f>I36*H36</f>
+      <c r="I36" s="8">
+        <f>I35</f>
+        <v>10</v>
+      </c>
+      <c r="J36" s="8">
+        <f>H36*I36</f>
         <v>250</v>
       </c>
-      <c r="K36" s="2">
-        <f>SUM(E36,J36)</f>
+      <c r="K36" s="8">
+        <f>E36+J36</f>
         <v>838.5</v>
       </c>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
     </row>
     <row r="37">
-      <c r="A37" s="2">
+      <c r="A37" s="12">
+        <f>A36+1</f>
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="8">
+        <f>C36-0.5</f>
         <v>53</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="8">
         <f>$A$1*1.1/2</f>
         <v>11</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="8">
         <f>C37*D37</f>
         <v>583</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="9">
         <f>F36</f>
         <v>44813</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="9">
         <f>G36+1</f>
         <v>44839</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="8">
+        <f>IF(G37&lt;=F37,0,G37-F37)</f>
         <v>26</v>
       </c>
-      <c r="I37" s="2">
-        <v>10</v>
-      </c>
-      <c r="J37" s="2">
-        <f>I37*H37</f>
+      <c r="I37" s="8">
+        <f>I36</f>
+        <v>10</v>
+      </c>
+      <c r="J37" s="8">
+        <f>H37*I37</f>
         <v>260</v>
       </c>
-      <c r="K37" s="2">
-        <f>SUM(E37,J37)</f>
+      <c r="K37" s="8">
+        <f>E37+J37</f>
         <v>843</v>
       </c>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
     </row>
     <row r="38">
-      <c r="A38" s="2">
+      <c r="A38" s="12">
+        <f>A37+1</f>
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="8">
+        <f>C37-0.5</f>
         <v>52.5</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="8">
         <f>$A$1*1.1/2</f>
         <v>11</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="8">
         <f>C38*D38</f>
         <v>577.5</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="9">
         <f>F37</f>
         <v>44813</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="9">
         <f>G37+1</f>
         <v>44840</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="8">
+        <f>IF(G38&lt;=F38,0,G38-F38)</f>
         <v>27</v>
       </c>
-      <c r="I38" s="2">
-        <v>10</v>
-      </c>
-      <c r="J38" s="2">
-        <f>I38*H38</f>
+      <c r="I38" s="8">
+        <f>I37</f>
+        <v>10</v>
+      </c>
+      <c r="J38" s="8">
+        <f>H38*I38</f>
         <v>270</v>
       </c>
-      <c r="K38" s="2">
-        <f>SUM(E38,J38)</f>
+      <c r="K38" s="8">
+        <f>E38+J38</f>
         <v>847.5</v>
       </c>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
     </row>
     <row r="39">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1"/>
-      <c r="B40" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="7">
-        <f>SUM(K:K)</f>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+    </row>
+    <row r="40" ht="28">
+      <c r="A40" s="8"/>
+      <c r="B40" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="8">
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>49947</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" ht="43">
-      <c r="A41" s="1"/>
-      <c r="B41" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="2">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+    </row>
+    <row r="41" ht="42">
+      <c r="A41" s="8"/>
+      <c r="B41" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="8">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
     </row>
     <row r="42" ht="72">
-      <c r="A42" s="1"/>
-      <c r="B42" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="2">
-        <f>MAX(H:H)</f>
+      <c r="A42" s="8"/>
+      <c r="B42" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="8">
+        <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
     </row>
     <row r="43" ht="72">
-      <c r="A43" s="1"/>
-      <c r="B43" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="2">
-        <f>MAX(K:K)</f>
+      <c r="A43" s="8"/>
+      <c r="B43" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="8">
+        <f>MAX(K3:K38)</f>
         <v>1540</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LR3/table_1_20.xlsx
+++ b/LR3/table_1_20.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCED2D13-3761-4229-8480-777AA83412DF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11676"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -178,7 +177,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -452,33 +451,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4">
         <v>20</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="3">
+        <v>20</v>
+      </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -489,7 +490,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -524,7 +525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -564,7 +565,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A38" si="3">A3+1</f>
         <v>2</v>
@@ -609,7 +610,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -654,7 +655,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -699,7 +700,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -744,7 +745,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -789,7 +790,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -834,7 +835,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -879,7 +880,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -924,7 +925,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -969,7 +970,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -1014,7 +1015,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -1059,7 +1060,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -1104,7 +1105,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -1149,7 +1150,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -1194,7 +1195,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -1239,7 +1240,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -1284,7 +1285,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" si="3"/>
         <v>18</v>
@@ -1329,7 +1330,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" si="3"/>
         <v>19</v>
@@ -1374,7 +1375,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -1419,7 +1420,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -1464,7 +1465,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -1509,7 +1510,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" si="3"/>
         <v>23</v>
@@ -1554,7 +1555,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" si="3"/>
         <v>24</v>
@@ -1599,7 +1600,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -1644,7 +1645,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" si="3"/>
         <v>26</v>
@@ -1689,7 +1690,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" si="3"/>
         <v>27</v>
@@ -1734,7 +1735,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" si="3"/>
         <v>28</v>
@@ -1779,7 +1780,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" si="3"/>
         <v>29</v>
@@ -1824,7 +1825,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -1869,7 +1870,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" si="3"/>
         <v>31</v>
@@ -1914,7 +1915,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" si="3"/>
         <v>32</v>
@@ -1959,7 +1960,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" si="3"/>
         <v>33</v>
@@ -2004,7 +2005,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" si="3"/>
         <v>34</v>
@@ -2049,7 +2050,7 @@
         <v>838.5</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -2094,7 +2095,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" si="3"/>
         <v>36</v>
@@ -2139,7 +2140,7 @@
         <v>847.5</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2152,14 +2153,14 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C40" s="2">
-        <f>TRUNC(SUM(K3:K38))</f>
-        <v>49947</v>
+        <f>FLOOR(SUM(K3:K38),2)</f>
+        <v>49946</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2170,7 +2171,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="2" t="s">
         <v>46</v>
@@ -2188,7 +2189,7 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="2" t="s">
         <v>47</v>
@@ -2206,7 +2207,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="2" t="s">
         <v>49</v>

--- a/LR3/table_1_20.xlsx
+++ b/LR3/table_1_20.xlsx
@@ -218,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -231,6 +231,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -454,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2158,9 +2161,10 @@
       <c r="B40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="2">
-        <f>FLOOR(SUM(K3:K38),2)</f>
-        <v>49946</v>
+      <c r="C40" s="6">
+        <f xml:space="preserve">
+FLOOR(SUM(K3:K38),1)</f>
+        <v>49947</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>

--- a/LR3/table_1_20.xlsx
+++ b/LR3/table_1_20.xlsx
@@ -457,7 +457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -2162,8 +2162,7 @@
         <v>45</v>
       </c>
       <c r="C40" s="6">
-        <f xml:space="preserve">
-FLOOR(SUM(K3:K38),1)</f>
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>49947</v>
       </c>
       <c r="D40" s="3"/>
